--- a/static/download/2024/RP3_ERT_ATFM_2024_Jan_Dec.xlsx
+++ b/static/download/2024/RP3_ERT_ATFM_2024_Jan_Dec.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
   <si>
     <t>Data source</t>
   </si>
@@ -392,67 +392,64 @@
     <t>Entity</t>
   </si>
   <si>
+    <t>ANS CR</t>
+  </si>
+  <si>
+    <t>Austro Control</t>
+  </si>
+  <si>
+    <t>Avinor Flysikring AS</t>
+  </si>
+  <si>
+    <t>BULATSA</t>
+  </si>
+  <si>
+    <t>Croatia Control</t>
+  </si>
+  <si>
+    <t>DCAC Cyprus</t>
+  </si>
+  <si>
+    <t>DFS + MUAC-DE</t>
+  </si>
+  <si>
+    <t>DSNA</t>
+  </si>
+  <si>
+    <t>EANS</t>
+  </si>
+  <si>
+    <t>ENAIRE</t>
+  </si>
+  <si>
+    <t>ENAV</t>
+  </si>
+  <si>
+    <t>Fintraffic ANS</t>
+  </si>
+  <si>
+    <t>HASP</t>
+  </si>
+  <si>
+    <t>HungaroControl (EC)</t>
+  </si>
+  <si>
     <t>AirNav Ireland</t>
   </si>
   <si>
-    <t>ANS CR</t>
-  </si>
-  <si>
-    <t>Austro Control</t>
-  </si>
-  <si>
-    <t>Avinor</t>
-  </si>
-  <si>
-    <t>BULATSA</t>
-  </si>
-  <si>
-    <t>Croatia Control</t>
-  </si>
-  <si>
-    <t>DCAC Cyprus</t>
-  </si>
-  <si>
-    <t>DFS</t>
-  </si>
-  <si>
-    <t>DSNA</t>
-  </si>
-  <si>
-    <t>EANS</t>
-  </si>
-  <si>
-    <t>ENAIRE</t>
-  </si>
-  <si>
-    <t>ENAV</t>
-  </si>
-  <si>
-    <t>Fintraffic ANS</t>
-  </si>
-  <si>
-    <t>HASP</t>
-  </si>
-  <si>
-    <t>HungaroControl (EC)</t>
-  </si>
-  <si>
     <t>LFV</t>
   </si>
   <si>
     <t>LGS</t>
   </si>
   <si>
-    <t>LPS</t>
-  </si>
-  <si>
-    <t>LVNL</t>
-  </si>
-  <si>
-    <t>Maastricht UAC</t>
-  </si>
-  <si>
-    <t>MATS</t>
+    <t>LPS SR</t>
+  </si>
+  <si>
+    <t>LVNL + MUAC-NL</t>
+  </si>
+  <si>
+    <t>Malta Air Traffic Services Ltd.</t>
   </si>
   <si>
     <t>NAV Portugal (Continental)</t>
@@ -461,22 +458,22 @@
     <t>NAVIAIR</t>
   </si>
   <si>
-    <t>Oro navigacija</t>
-  </si>
-  <si>
     <t>PANSA</t>
   </si>
   <si>
     <t>ROMATSA</t>
   </si>
   <si>
-    <t>skeyes</t>
+    <t>SE Oro Navigacija</t>
+  </si>
+  <si>
+    <t>Belgium-Lux. + MUAC  BE-LU</t>
   </si>
   <si>
     <t>Skyguide</t>
   </si>
   <si>
-    <t>Slovenia Control</t>
+    <t>Slovenia Control, Ltd</t>
   </si>
   <si>
     <t>Change date</t>
@@ -1255,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="10">
-        <v>45672.0</v>
+        <v>45758.0</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -1589,20 +1586,20 @@
       </c>
       <c r="C15" s="32">
         <f t="shared" si="1"/>
-        <v>2.178651345</v>
+        <v>2.186845646</v>
       </c>
       <c r="D15" s="39">
         <v>9546147.0</v>
       </c>
       <c r="E15" s="40">
-        <v>2.0797726E7</v>
+        <v>2.087595E7</v>
       </c>
       <c r="F15" s="43">
         <v>0.5</v>
       </c>
       <c r="G15" s="42">
         <f t="shared" si="2"/>
-        <v>1.678651345</v>
+        <v>1.686845646</v>
       </c>
       <c r="H15" s="37">
         <v>0.0495</v>
@@ -1663,7 +1660,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45672</v>
+        <v>45758</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3015,17 +3012,17 @@
       </c>
       <c r="B66" s="65">
         <f t="shared" si="1"/>
-        <v>0.4424622971</v>
+        <v>0.4534214027</v>
       </c>
       <c r="C66" s="67">
         <v>625416.0</v>
       </c>
       <c r="D66" s="67">
-        <v>276723.0</v>
+        <v>283577.0</v>
       </c>
       <c r="E66" s="77">
         <f>D66/C66</f>
-        <v>0.4424622971</v>
+        <v>0.4534214027</v>
       </c>
       <c r="F66" s="78">
         <v>1.0</v>
@@ -3037,17 +3034,17 @@
       </c>
       <c r="B67" s="70">
         <f t="shared" si="1"/>
-        <v>0.3734562194</v>
+        <v>0.3713654044</v>
       </c>
       <c r="C67" s="72">
         <v>616506.0</v>
       </c>
       <c r="D67" s="72">
-        <v>230238.0</v>
+        <v>228949.0</v>
       </c>
       <c r="E67" s="70">
         <f t="shared" ref="E67:E77" si="6">sum(D$66:D67)/sum(C$66:C67)</f>
-        <v>0.4082067956</v>
+        <v>0.4126877533</v>
       </c>
       <c r="F67" s="79">
         <v>1.0</v>
@@ -3059,17 +3056,17 @@
       </c>
       <c r="B68" s="70">
         <f t="shared" si="1"/>
-        <v>0.5594933823</v>
+        <v>0.5524141272</v>
       </c>
       <c r="C68" s="72">
         <v>701910.0</v>
       </c>
       <c r="D68" s="72">
-        <v>392714.0</v>
+        <v>387745.0</v>
       </c>
       <c r="E68" s="70">
         <f t="shared" si="6"/>
-        <v>0.46283578</v>
+        <v>0.4631423909</v>
       </c>
       <c r="F68" s="79">
         <v>1.0</v>
@@ -3081,17 +3078,17 @@
       </c>
       <c r="B69" s="70">
         <f t="shared" si="1"/>
-        <v>0.60922087</v>
+        <v>0.5966516136</v>
       </c>
       <c r="C69" s="72">
         <v>780794.0</v>
       </c>
       <c r="D69" s="72">
-        <v>475676.0</v>
+        <v>465862.0</v>
       </c>
       <c r="E69" s="70">
         <f t="shared" si="6"/>
-        <v>0.5047852439</v>
+        <v>0.5014020273</v>
       </c>
       <c r="F69" s="79">
         <v>1.0</v>
@@ -3103,17 +3100,17 @@
       </c>
       <c r="B70" s="70">
         <f t="shared" si="1"/>
-        <v>1.680132592</v>
+        <v>1.677802439</v>
       </c>
       <c r="C70" s="72">
         <v>867325.0</v>
       </c>
       <c r="D70" s="72">
-        <v>1457221.0</v>
+        <v>1455200.0</v>
       </c>
       <c r="E70" s="70">
         <f t="shared" si="6"/>
-        <v>0.7885887085</v>
+        <v>0.7854597682</v>
       </c>
       <c r="F70" s="79">
         <v>1.0</v>
@@ -3125,17 +3122,17 @@
       </c>
       <c r="B71" s="70">
         <f t="shared" si="1"/>
-        <v>4.033719586</v>
+        <v>4.06097985</v>
       </c>
       <c r="C71" s="72">
         <v>903036.0</v>
       </c>
       <c r="D71" s="72">
-        <v>3642594.0</v>
+        <v>3667211.0</v>
       </c>
       <c r="E71" s="70">
         <f t="shared" si="6"/>
-        <v>1.440530529</v>
+        <v>1.443506733</v>
       </c>
       <c r="F71" s="79">
         <v>1.0</v>
@@ -3150,17 +3147,17 @@
       </c>
       <c r="B72" s="70">
         <f t="shared" si="1"/>
-        <v>5.801750683</v>
+        <v>5.847574803</v>
       </c>
       <c r="C72" s="72">
         <v>953799.0</v>
       </c>
       <c r="D72" s="72">
-        <v>5533704.0</v>
+        <v>5577411.0</v>
       </c>
       <c r="E72" s="70">
         <f t="shared" si="6"/>
-        <v>2.203953321</v>
+        <v>2.214429967</v>
       </c>
       <c r="F72" s="79">
         <v>1.0</v>
@@ -3172,17 +3169,17 @@
       </c>
       <c r="B73" s="70">
         <f t="shared" si="1"/>
-        <v>4.353791676</v>
+        <v>4.381259198</v>
       </c>
       <c r="C73" s="72">
         <v>945189.0</v>
       </c>
       <c r="D73" s="72">
-        <v>4115156.0</v>
+        <v>4141118.0</v>
       </c>
       <c r="E73" s="70">
         <f t="shared" si="6"/>
-        <v>2.521753057</v>
+        <v>2.534741378</v>
       </c>
       <c r="F73" s="79">
         <v>1.0</v>
@@ -3194,17 +3191,17 @@
       </c>
       <c r="B74" s="70">
         <f t="shared" si="1"/>
-        <v>2.561973507</v>
+        <v>2.561983444</v>
       </c>
       <c r="C74" s="72">
         <v>905758.0</v>
       </c>
       <c r="D74" s="72">
-        <v>2320528.0</v>
+        <v>2320537.0</v>
       </c>
       <c r="E74" s="70">
         <f t="shared" si="6"/>
-        <v>2.526743649</v>
+        <v>2.5381216</v>
       </c>
       <c r="F74" s="79">
         <v>1.0</v>
@@ -3216,17 +3213,17 @@
       </c>
       <c r="B75" s="70">
         <f t="shared" si="1"/>
-        <v>1.529953699</v>
+        <v>1.52782889</v>
       </c>
       <c r="C75" s="72">
         <v>867372.0</v>
       </c>
       <c r="D75" s="72">
-        <v>1327039.0</v>
+        <v>1325196.0</v>
       </c>
       <c r="E75" s="70">
         <f t="shared" si="6"/>
-        <v>2.420881451</v>
+        <v>2.430825366</v>
       </c>
       <c r="F75" s="79">
         <v>1.0</v>
@@ -3238,17 +3235,17 @@
       </c>
       <c r="B76" s="70">
         <f t="shared" si="1"/>
-        <v>0.7072755251</v>
+        <v>0.7070758882</v>
       </c>
       <c r="C76" s="72">
         <v>686246.0</v>
       </c>
       <c r="D76" s="72">
-        <v>485365.0</v>
+        <v>485228.0</v>
       </c>
       <c r="E76" s="70">
         <f t="shared" si="6"/>
-        <v>2.288055449</v>
+        <v>2.297213112</v>
       </c>
       <c r="F76" s="79">
         <v>1.0</v>
@@ -3260,17 +3257,17 @@
       </c>
       <c r="B77" s="74">
         <f t="shared" si="1"/>
-        <v>0.7805587792</v>
+        <v>0.7764421273</v>
       </c>
       <c r="C77" s="75">
         <v>692796.0</v>
       </c>
       <c r="D77" s="75">
-        <v>540768.0</v>
+        <v>537916.0</v>
       </c>
       <c r="E77" s="74">
         <f t="shared" si="6"/>
-        <v>2.178651345</v>
+        <v>2.186845646</v>
       </c>
       <c r="F77" s="80">
         <v>1.0</v>
@@ -3329,7 +3326,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45672</v>
+        <v>45758</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3401,15 +3398,15 @@
         <v>9546147.0</v>
       </c>
       <c r="D6" s="99">
-        <v>2.0797726E7</v>
+        <v>2.087595E7</v>
       </c>
       <c r="E6" s="98">
         <f t="shared" ref="E6:E15" si="1">D6/C6</f>
-        <v>2.178651345</v>
+        <v>2.186845646</v>
       </c>
       <c r="F6" s="98">
         <f>E6-B6</f>
-        <v>1.678651345</v>
+        <v>1.686845646</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -3421,11 +3418,11 @@
         <v>797633.0</v>
       </c>
       <c r="D7" s="99">
-        <v>175048.0</v>
+        <v>171611.0</v>
       </c>
       <c r="E7" s="98">
         <f t="shared" si="1"/>
-        <v>0.2194593253</v>
+        <v>0.215150326</v>
       </c>
       <c r="F7" s="98"/>
     </row>
@@ -3438,11 +3435,11 @@
         <v>2928033.0</v>
       </c>
       <c r="D8" s="99">
-        <v>2548439.0</v>
+        <v>2503737.0</v>
       </c>
       <c r="E8" s="98">
         <f t="shared" si="1"/>
-        <v>0.8703587016</v>
+        <v>0.8550917971</v>
       </c>
       <c r="F8" s="98"/>
     </row>
@@ -3455,11 +3452,11 @@
         <v>1218781.0</v>
       </c>
       <c r="D9" s="99">
-        <v>308883.0</v>
+        <v>206910.0</v>
       </c>
       <c r="E9" s="98">
         <f t="shared" si="1"/>
-        <v>0.2534360152</v>
+        <v>0.1697679895</v>
       </c>
       <c r="F9" s="98"/>
     </row>
@@ -3489,11 +3486,11 @@
         <v>2428064.0</v>
       </c>
       <c r="D11" s="99">
-        <v>5193759.0</v>
+        <v>5176583.0</v>
       </c>
       <c r="E11" s="98">
         <f t="shared" si="1"/>
-        <v>2.139053583</v>
+        <v>2.131979635</v>
       </c>
       <c r="F11" s="98"/>
     </row>
@@ -3506,11 +3503,11 @@
         <v>5982154.0</v>
       </c>
       <c r="D12" s="99">
-        <v>9826680.0</v>
+        <v>1.0068554E7</v>
       </c>
       <c r="E12" s="98">
         <f t="shared" si="1"/>
-        <v>1.642665836</v>
+        <v>1.683098429</v>
       </c>
       <c r="F12" s="98"/>
     </row>
@@ -3523,11 +3520,11 @@
         <v>905354.0</v>
       </c>
       <c r="D13" s="99">
-        <v>20807.0</v>
+        <v>26033.0</v>
       </c>
       <c r="E13" s="98">
         <f t="shared" si="1"/>
-        <v>0.02298217051</v>
+        <v>0.02875449824</v>
       </c>
       <c r="F13" s="98"/>
     </row>
@@ -3540,11 +3537,11 @@
         <v>2439028.0</v>
       </c>
       <c r="D14" s="99">
-        <v>2687892.0</v>
+        <v>2686304.0</v>
       </c>
       <c r="E14" s="98">
         <f t="shared" si="1"/>
-        <v>1.102034089</v>
+        <v>1.10138301</v>
       </c>
       <c r="F14" s="98"/>
     </row>
@@ -3557,11 +3554,11 @@
         <v>2502924.0</v>
       </c>
       <c r="D15" s="99">
-        <v>342494.0</v>
+        <v>333036.0</v>
       </c>
       <c r="E15" s="98">
         <f t="shared" si="1"/>
-        <v>0.1368375548</v>
+        <v>0.1330587745</v>
       </c>
       <c r="F15" s="98"/>
     </row>
@@ -3614,7 +3611,7 @@
       </c>
       <c r="B2" s="52">
         <f>ERT_ATFM_YY!B2</f>
-        <v>45672</v>
+        <v>45758</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>6</v>
@@ -3685,264 +3682,309 @@
       <c r="A6" s="97" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C6" s="99">
-        <v>679303.0</v>
+        <v>711214.0</v>
       </c>
       <c r="D6" s="99">
-        <v>1531.0</v>
+        <v>89658.0</v>
       </c>
       <c r="E6" s="101">
-        <f t="shared" ref="E6:E34" si="1">D6/C6</f>
-        <v>0.002253780713</v>
-      </c>
-      <c r="F6" s="98" t="s">
-        <v>4</v>
+        <v>0.13</v>
+      </c>
+      <c r="F6" s="98">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="98"/>
+      <c r="B7" s="98">
+        <v>0.16</v>
+      </c>
       <c r="C7" s="99">
-        <v>711214.0</v>
+        <v>1249634.0</v>
       </c>
       <c r="D7" s="99">
-        <v>100617.0</v>
+        <v>594968.0</v>
       </c>
       <c r="E7" s="101">
-        <f t="shared" si="1"/>
-        <v>0.141472187</v>
-      </c>
-      <c r="F7" s="98"/>
+        <v>0.48</v>
+      </c>
+      <c r="F7" s="98">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C8" s="99">
-        <v>1249634.0</v>
+        <v>555589.0</v>
       </c>
       <c r="D8" s="99">
-        <v>640746.0</v>
+        <v>24554.0</v>
       </c>
       <c r="E8" s="101">
-        <f t="shared" si="1"/>
-        <v>0.5127469323</v>
-      </c>
-      <c r="F8" s="98"/>
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="98">
+        <v>-0.07</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="98">
+        <v>0.08</v>
+      </c>
       <c r="C9" s="99">
-        <v>555589.0</v>
+        <v>1050462.0</v>
       </c>
       <c r="D9" s="99">
-        <v>19328.0</v>
+        <v>102283.0</v>
       </c>
       <c r="E9" s="101">
-        <f t="shared" si="1"/>
-        <v>0.03478830574</v>
-      </c>
-      <c r="F9" s="98"/>
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="98">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="98">
+        <v>0.17</v>
+      </c>
       <c r="C10" s="99">
-        <v>1050462.0</v>
+        <v>920123.0</v>
       </c>
       <c r="D10" s="99">
-        <v>189969.0</v>
+        <v>1389663.0</v>
       </c>
       <c r="E10" s="101">
-        <f t="shared" si="1"/>
-        <v>0.1808432861</v>
-      </c>
-      <c r="F10" s="98"/>
+        <v>1.51</v>
+      </c>
+      <c r="F10" s="98">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="98">
+        <v>0.15</v>
+      </c>
       <c r="C11" s="99">
-        <v>920123.0</v>
+        <v>379007.0</v>
       </c>
       <c r="D11" s="99">
-        <v>1459394.0</v>
+        <v>2061.0</v>
       </c>
       <c r="E11" s="101">
-        <f t="shared" si="1"/>
-        <v>1.586085773</v>
-      </c>
-      <c r="F11" s="98"/>
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="98">
+        <v>-0.14</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="98">
+        <v>0.27</v>
+      </c>
       <c r="C12" s="99">
-        <v>379007.0</v>
+        <v>2839817.0</v>
       </c>
       <c r="D12" s="99">
-        <v>2061.0</v>
+        <v>4467388.0</v>
       </c>
       <c r="E12" s="101">
-        <f t="shared" si="1"/>
-        <v>0.005437894287</v>
-      </c>
-      <c r="F12" s="98"/>
+        <v>1.57</v>
+      </c>
+      <c r="F12" s="98">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="98">
+        <v>0.25</v>
+      </c>
       <c r="C13" s="99">
-        <v>2819093.0</v>
+        <v>3391028.0</v>
       </c>
       <c r="D13" s="99">
-        <v>3978276.0</v>
+        <v>4708979.0</v>
       </c>
       <c r="E13" s="101">
-        <f t="shared" si="1"/>
-        <v>1.411190053</v>
-      </c>
-      <c r="F13" s="98"/>
+        <v>1.39</v>
+      </c>
+      <c r="F13" s="98">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B14" s="98"/>
+      <c r="B14" s="98">
+        <v>0.03</v>
+      </c>
       <c r="C14" s="99">
-        <v>3391028.0</v>
+        <v>169709.0</v>
       </c>
       <c r="D14" s="99">
-        <v>4736697.0</v>
+        <v>1132.0</v>
       </c>
       <c r="E14" s="101">
-        <f t="shared" si="1"/>
-        <v>1.39683217</v>
-      </c>
-      <c r="F14" s="98"/>
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="98">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="98">
+        <v>0.19</v>
+      </c>
       <c r="C15" s="99">
-        <v>169709.0</v>
+        <v>2360451.0</v>
       </c>
       <c r="D15" s="99">
-        <v>1132.0</v>
+        <v>2403805.0</v>
       </c>
       <c r="E15" s="101">
-        <f t="shared" si="1"/>
-        <v>0.006670241413</v>
-      </c>
-      <c r="F15" s="98"/>
+        <v>1.02</v>
+      </c>
+      <c r="F15" s="98">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C16" s="99">
-        <v>2360451.0</v>
+        <v>2027066.0</v>
       </c>
       <c r="D16" s="99">
-        <v>2404616.0</v>
+        <v>1454304.0</v>
       </c>
       <c r="E16" s="101">
-        <f t="shared" si="1"/>
-        <v>1.018710407</v>
-      </c>
-      <c r="F16" s="98"/>
+        <v>0.72</v>
+      </c>
+      <c r="F16" s="98">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="98">
+        <v>0.05</v>
+      </c>
       <c r="C17" s="99">
-        <v>2027066.0</v>
+        <v>230292.0</v>
       </c>
       <c r="D17" s="99">
-        <v>1495223.0</v>
+        <v>0.0</v>
       </c>
       <c r="E17" s="101">
-        <f t="shared" si="1"/>
-        <v>0.7376291645</v>
-      </c>
-      <c r="F17" s="98"/>
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="98">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="98"/>
+      <c r="B18" s="98">
+        <v>0.15</v>
+      </c>
       <c r="C18" s="99">
-        <v>230292.0</v>
+        <v>1074741.0</v>
       </c>
       <c r="D18" s="99">
-        <v>0.0</v>
+        <v>1047372.0</v>
       </c>
       <c r="E18" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="98"/>
+        <v>0.97</v>
+      </c>
+      <c r="F18" s="98">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="98"/>
+      <c r="B19" s="98">
+        <v>0.11</v>
+      </c>
       <c r="C19" s="99">
-        <v>1074741.0</v>
+        <v>1095404.0</v>
       </c>
       <c r="D19" s="99">
-        <v>1051155.0</v>
+        <v>3014149.0</v>
       </c>
       <c r="E19" s="101">
-        <f t="shared" si="1"/>
-        <v>0.9780542475</v>
-      </c>
-      <c r="F19" s="98"/>
+        <v>2.75</v>
+      </c>
+      <c r="F19" s="98">
+        <v>2.64</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="98"/>
+      <c r="B20" s="98">
+        <v>0.03</v>
+      </c>
       <c r="C20" s="99">
-        <v>1095404.0</v>
+        <v>679303.0</v>
       </c>
       <c r="D20" s="99">
-        <v>2895147.0</v>
+        <v>1531.0</v>
       </c>
       <c r="E20" s="101">
-        <f t="shared" si="1"/>
-        <v>2.642994731</v>
-      </c>
-      <c r="F20" s="98"/>
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="98">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="98"/>
+      <c r="B21" s="98">
+        <v>0.08</v>
+      </c>
       <c r="C21" s="99">
         <v>605374.0</v>
       </c>
@@ -3950,16 +3992,19 @@
         <v>6357.0</v>
       </c>
       <c r="E21" s="101">
-        <f t="shared" si="1"/>
-        <v>0.01050094652</v>
-      </c>
-      <c r="F21" s="98"/>
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="98">
+        <v>-0.07</v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="98"/>
+      <c r="B22" s="98">
+        <v>0.03</v>
+      </c>
       <c r="C22" s="99">
         <v>227609.0</v>
       </c>
@@ -3967,214 +4012,239 @@
         <v>347.0</v>
       </c>
       <c r="E22" s="101">
-        <f t="shared" si="1"/>
-        <v>0.001524544284</v>
-      </c>
-      <c r="F22" s="98"/>
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="98">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="98"/>
+      <c r="B23" s="98">
+        <v>0.07</v>
+      </c>
       <c r="C23" s="99">
         <v>601041.0</v>
       </c>
       <c r="D23" s="99">
-        <v>76642.0</v>
+        <v>66932.0</v>
       </c>
       <c r="E23" s="101">
-        <f t="shared" si="1"/>
-        <v>0.1275154274</v>
-      </c>
-      <c r="F23" s="98"/>
+        <v>0.11</v>
+      </c>
+      <c r="F23" s="98">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="98"/>
+      <c r="B24" s="98">
+        <v>0.14</v>
+      </c>
       <c r="C24" s="99">
-        <v>582696.0</v>
+        <v>1201768.0</v>
       </c>
       <c r="D24" s="99">
-        <v>45777.0</v>
+        <v>114786.0</v>
       </c>
       <c r="E24" s="101">
-        <f t="shared" si="1"/>
-        <v>0.07856069031</v>
-      </c>
-      <c r="F24" s="98"/>
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="98">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="98"/>
+      <c r="B25" s="98">
+        <v>0.01</v>
+      </c>
       <c r="C25" s="99">
-        <v>1794971.0</v>
+        <v>151700.0</v>
       </c>
       <c r="D25" s="99">
-        <v>361409.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" s="101">
-        <f t="shared" si="1"/>
-        <v>0.2013453142</v>
-      </c>
-      <c r="F25" s="98"/>
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="98">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="98"/>
+      <c r="B26" s="98">
+        <v>0.13</v>
+      </c>
       <c r="C26" s="99">
-        <v>151700.0</v>
+        <v>720113.0</v>
       </c>
       <c r="D26" s="99">
-        <v>0.0</v>
+        <v>282499.0</v>
       </c>
       <c r="E26" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="98"/>
+        <v>0.39</v>
+      </c>
+      <c r="F26" s="98">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="97" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="98"/>
+      <c r="B27" s="98">
+        <v>0.05</v>
+      </c>
       <c r="C27" s="99">
-        <v>720113.0</v>
+        <v>605140.0</v>
       </c>
       <c r="D27" s="99">
-        <v>283276.0</v>
+        <v>28330.0</v>
       </c>
       <c r="E27" s="101">
-        <f t="shared" si="1"/>
-        <v>0.3933771505</v>
-      </c>
-      <c r="F27" s="98"/>
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="98">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="98"/>
+      <c r="B28" s="98">
+        <v>0.12</v>
+      </c>
       <c r="C28" s="99">
-        <v>605140.0</v>
+        <v>745435.0</v>
       </c>
       <c r="D28" s="99">
-        <v>28330.0</v>
+        <v>171611.0</v>
       </c>
       <c r="E28" s="101">
-        <f t="shared" si="1"/>
-        <v>0.04681561292</v>
-      </c>
-      <c r="F28" s="98"/>
+        <v>0.23</v>
+      </c>
+      <c r="F28" s="98">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="98"/>
+      <c r="B29" s="98">
+        <v>0.04</v>
+      </c>
       <c r="C29" s="99">
-        <v>187523.0</v>
+        <v>819673.0</v>
       </c>
       <c r="D29" s="99">
-        <v>0.0</v>
+        <v>104627.0</v>
       </c>
       <c r="E29" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="98"/>
+        <v>0.13</v>
+      </c>
+      <c r="F29" s="98">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="97" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="98"/>
+      <c r="B30" s="98">
+        <v>0.02</v>
+      </c>
       <c r="C30" s="99">
-        <v>745435.0</v>
+        <v>187523.0</v>
       </c>
       <c r="D30" s="99">
-        <v>175048.0</v>
+        <v>0.0</v>
       </c>
       <c r="E30" s="101">
-        <f t="shared" si="1"/>
-        <v>0.2348266448</v>
-      </c>
-      <c r="F30" s="98"/>
+        <v>0.0</v>
+      </c>
+      <c r="F30" s="98">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="98"/>
+      <c r="B31" s="98">
+        <v>0.17</v>
+      </c>
       <c r="C31" s="99">
-        <v>819673.0</v>
+        <v>1215122.0</v>
       </c>
       <c r="D31" s="99">
-        <v>118914.0</v>
+        <v>237678.0</v>
       </c>
       <c r="E31" s="101">
-        <f t="shared" si="1"/>
-        <v>0.1450749262</v>
-      </c>
-      <c r="F31" s="98"/>
+        <v>0.2</v>
+      </c>
+      <c r="F31" s="98">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="98"/>
+      <c r="B32" s="98">
+        <v>0.19</v>
+      </c>
       <c r="C32" s="99">
-        <v>585406.0</v>
+        <v>1334046.0</v>
       </c>
       <c r="D32" s="99">
-        <v>44999.0</v>
+        <v>539723.0</v>
       </c>
       <c r="E32" s="101">
-        <f t="shared" si="1"/>
-        <v>0.0768680198</v>
-      </c>
-      <c r="F32" s="98"/>
+        <v>0.4</v>
+      </c>
+      <c r="F32" s="98">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="98"/>
+      <c r="B33" s="98">
+        <v>0.09</v>
+      </c>
       <c r="C33" s="99">
-        <v>1334046.0</v>
+        <v>429597.0</v>
       </c>
       <c r="D33" s="99">
-        <v>659522.0</v>
+        <v>21213.0</v>
       </c>
       <c r="E33" s="101">
-        <f t="shared" si="1"/>
-        <v>0.4943772554</v>
-      </c>
-      <c r="F33" s="98"/>
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="98">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="99">
-        <v>429597.0</v>
-      </c>
-      <c r="D34" s="99">
-        <v>21213.0</v>
-      </c>
-      <c r="E34" s="101">
-        <f t="shared" si="1"/>
-        <v>0.04937883644</v>
-      </c>
-      <c r="F34" s="98"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="103"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="102"/>
@@ -4207,16 +4277,16 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="106" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="106" t="s">
         <v>155</v>
-      </c>
-      <c r="D1" s="106" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -4224,11 +4294,11 @@
         <v>44351.0</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="109"/>
       <c r="D2" s="108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
